--- a/ConfigInput/ET/UnitConfig.xlsx
+++ b/ConfigInput/ET/UnitConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\ConfigInput\ET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5062443-2DBD-4231-B8D4-23C0EA2C8AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE30436A-29D1-4363-8380-A38A2F3DD78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="3000" windowWidth="25725" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="1" r:id="rId1"/>
@@ -31,98 +31,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>测试说明</t>
+  </si>
+  <si>
+    <t>米克尔</t>
+  </si>
+  <si>
+    <t>带有强力攻击技能</t>
+  </si>
+  <si>
+    <t>#测试说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
   <si>
     <t>##comment</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>位置</t>
-  </si>
-  <si>
-    <t>##var</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>测试说明</t>
-  </si>
-  <si>
-    <t>米克尔</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能</t>
-  </si>
-  <si>
-    <t>Values</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(array#sep=;),long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>键值对Value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#测试说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>playerUnit表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>##comment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
+      <t>数值Value</t>
     </r>
     <r>
       <rPr>
@@ -133,7 +130,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>ox</t>
+      <t>s</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(array#sep=;)</t>
     </r>
     <r>
       <rPr>
@@ -141,31 +144,16 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>Unit表</t>
+      <t>,long</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>品质</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>身高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>体重</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>NumericValues</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -577,7 +565,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -588,107 +576,105 @@
     <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4">
         <v>2001</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>2002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1001</v>
       </c>
@@ -696,19 +682,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(";",TRUE,I4:L4)</f>
+      <c r="H4" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(";",TRUE,I4:J4)</f>
         <v>178;68</v>
       </c>
       <c r="I4" s="1">
@@ -718,9 +704,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="2"/>
-    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -733,106 +717,105 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>22</v>
+      <c r="H1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>25</v>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4">
         <v>2003</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>2004</v>
       </c>
     </row>
@@ -845,19 +828,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(";",TRUE,I4:L4)</f>
+      <c r="H4" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(";",TRUE,I4:J4)</f>
         <v>1;10</v>
       </c>
       <c r="I4" s="2">
